--- a/unclear.xlsx
+++ b/unclear.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -59,6 +59,21 @@
   </si>
   <si>
     <t>val</t>
+  </si>
+  <si>
+    <t>prolific_id</t>
+  </si>
+  <si>
+    <t>item_idx</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -416,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:P1"/>
+  <dimension ref="B1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="2:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,6 +482,21 @@
       </c>
       <c r="P1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
